--- a/doc/코딩이력관리소요필드_2019-10-31.xlsx
+++ b/doc/코딩이력관리소요필드_2019-10-31.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\CHMS\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CHMS\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20625" windowHeight="11715" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20625" windowHeight="11715" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,19 +17,21 @@
     <sheet name="프로젝트 마스터 테이블" sheetId="3" r:id="rId3"/>
     <sheet name="마일리지 테이블" sheetId="10" r:id="rId4"/>
     <sheet name="마일리지 코드 테이블" sheetId="11" r:id="rId5"/>
-    <sheet name="파일 테이블" sheetId="4" r:id="rId6"/>
-    <sheet name="프로젝트 맴버 테이블" sheetId="5" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="9" state="hidden" r:id="rId8"/>
-    <sheet name="동료평가 테이블" sheetId="6" r:id="rId9"/>
-    <sheet name="코드 테이블" sheetId="7" r:id="rId10"/>
-    <sheet name="프로젝트 참여요청 테이블" sheetId="8" r:id="rId11"/>
+    <sheet name="마일리지 Major 테이블" sheetId="12" r:id="rId6"/>
+    <sheet name="마일리지 Minor 테이블" sheetId="13" r:id="rId7"/>
+    <sheet name="파일 테이블" sheetId="4" r:id="rId8"/>
+    <sheet name="프로젝트 맴버 테이블" sheetId="5" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="9" state="hidden" r:id="rId10"/>
+    <sheet name="동료평가 테이블" sheetId="6" r:id="rId11"/>
+    <sheet name="코드 테이블" sheetId="7" r:id="rId12"/>
+    <sheet name="프로젝트 참여요청 테이블" sheetId="8" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="352">
   <si>
     <t>구분(JavaScript, Python, Java, Go, C++, Ruby, PHP, TypeScript, C#, C, Scala, Kotlin, R, Lua, Fortran, Visual Basic)</t>
   </si>
@@ -1081,6 +1083,262 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>마일리지 점수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세내용</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>etail</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>core</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>accept_method</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>인정방법</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjectId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>학번</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>성명</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>학부(과)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력일자</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>마일리지코드</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>마일리지점수</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>발생일자</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>활동상세내역</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업단확인</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>정산일자</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ser_num</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ser_name</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>department</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_date</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjectId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjectId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>rom</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>to</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ct_date</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>증빙사진</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array(ObjectId)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>etail</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ccept_date</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>s</t>
     </r>
@@ -1097,286 +1355,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>경력활동 항목</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>마일리지 점수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세내용</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>etail</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>core</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>major_code</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>accept_method</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>인정방법</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ObjectId</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>학번</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>성명</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>학부(과)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력일자</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>마일리지코드</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>마일리지점수</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>발생일자</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>활동상세내역</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>사업단확인</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>정산일자</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ser_num</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ser_name</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>department</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>input_date</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ObjectId</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ObjectId</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>rom</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>to</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ct_date</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>score</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>증빙사진</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Array(ObjectId)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>etail</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ccept_date</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>tring</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>i</t>
     </r>
@@ -1473,6 +1451,58 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 테이블 모형이 다름</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>minor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjectId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ajor</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>메이저 코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(구분)</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1639,7 +1669,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1769,6 +1799,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1779,15 +1821,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3380,6 +3413,297 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="121.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.600000000000001" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.600000000000001" customHeight="1">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.600000000000001" customHeight="1">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.600000000000001" customHeight="1">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.600000000000001" customHeight="1">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -3395,11 +3719,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
@@ -3543,15 +3867,15 @@
         <v>8</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="47" t="s">
-        <v>347</v>
+      <c r="A19" s="44" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -3564,7 +3888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E9"/>
@@ -3718,53 +4042,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="F3" s="43" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="F3" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="K3" s="43" t="s">
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="K3" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="P3" s="43" t="s">
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="P3" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="7" t="s">
@@ -5174,7 +5498,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5192,14 +5516,14 @@
       <c r="B1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="45" t="s">
         <v>291</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="E1" s="48" t="s">
-        <v>342</v>
+      <c r="E1" s="45" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5207,13 +5531,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E2" s="6"/>
     </row>
@@ -5222,13 +5546,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E3" s="6"/>
     </row>
@@ -5240,10 +5564,10 @@
         <v>290</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E4" s="6"/>
     </row>
@@ -5251,14 +5575,14 @@
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="49" t="s">
-        <v>326</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>321</v>
+      <c r="B5" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>318</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E5" s="6"/>
     </row>
@@ -5266,14 +5590,14 @@
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="49" t="s">
-        <v>327</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>322</v>
+      <c r="B6" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>319</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E6" s="6"/>
     </row>
@@ -5282,13 +5606,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>324</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>323</v>
+        <v>321</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>320</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E7" s="6"/>
     </row>
@@ -5299,11 +5623,11 @@
       <c r="B8" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="C8" s="49" t="s">
-        <v>332</v>
+      <c r="C8" s="46" t="s">
+        <v>329</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E8" s="6"/>
     </row>
@@ -5312,13 +5636,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E9" s="6"/>
     </row>
@@ -5330,11 +5654,11 @@
         <v>58</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="32" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5345,11 +5669,11 @@
         <v>58</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="32" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5357,13 +5681,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E12" s="6"/>
     </row>
@@ -5372,13 +5696,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E13" s="6"/>
     </row>
@@ -5390,10 +5714,10 @@
         <v>250</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E14" s="6"/>
     </row>
@@ -5402,13 +5726,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E15" s="6"/>
     </row>
@@ -5423,14 +5747,14 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6.5" style="40" customWidth="1"/>
     <col min="2" max="2" width="11" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="43" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5441,7 +5765,7 @@
       <c r="B1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="45" t="s">
         <v>291</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -5481,13 +5805,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>304</v>
+        <v>305</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>345</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5495,27 +5819,27 @@
         <v>3</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="49" t="s">
-        <v>301</v>
+      <c r="B6" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5523,13 +5847,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>306</v>
+        <v>302</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>303</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5539,11 +5863,11 @@
       <c r="B8" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="C8" s="49" t="s">
-        <v>302</v>
+      <c r="C8" s="46" t="s">
+        <v>300</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -5553,6 +5877,185 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D6"/>
@@ -5660,7 +6163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E14"/>
@@ -5895,295 +6398,4 @@
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:D18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="4.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="121.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="18.600000000000001" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.600000000000001" customHeight="1">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.600000000000001" customHeight="1">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.600000000000001" customHeight="1">
-      <c r="A4" s="11">
-        <v>3</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.600000000000001" customHeight="1">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>278</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="11">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="11">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="11">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
-</worksheet>
 </file>
--- a/doc/코딩이력관리소요필드_2019-10-31.xlsx
+++ b/doc/코딩이력관리소요필드_2019-10-31.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20625" windowHeight="11715" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20625" windowHeight="11715" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="353">
   <si>
     <t>구분(JavaScript, Python, Java, Go, C++, Ruby, PHP, TypeScript, C#, C, Scala, Kotlin, R, Lua, Fortran, Visual Basic)</t>
   </si>
@@ -1504,6 +1504,10 @@
       </rPr>
       <t>(구분)</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -5498,7 +5502,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5880,8 +5884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5941,7 +5945,7 @@
         <v>290</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>348</v>
@@ -5969,8 +5973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/doc/코딩이력관리소요필드_2019-10-31.xlsx
+++ b/doc/코딩이력관리소요필드_2019-10-31.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CHMS\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\CHMS\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2C4602-86F1-440A-815A-82AC6A3A5FAC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20625" windowHeight="11715" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +26,15 @@
     <sheet name="동료평가 테이블" sheetId="6" r:id="rId11"/>
     <sheet name="코드 테이블" sheetId="7" r:id="rId12"/>
     <sheet name="프로젝트 참여요청 테이블" sheetId="8" r:id="rId13"/>
+    <sheet name="학과 코드타입" sheetId="14" r:id="rId14"/>
+    <sheet name="단과 대학 코드타입" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="364">
   <si>
     <t>구분(JavaScript, Python, Java, Go, C++, Ruby, PHP, TypeScript, C#, C, Scala, Kotlin, R, Lua, Fortran, Visual Basic)</t>
   </si>
@@ -1510,11 +1513,55 @@
     <t>description</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjectId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>auth_state</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>auth_key</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한 키</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한 상태</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>department_type</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>college_type</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -1673,7 +1720,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1815,6 +1862,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1829,7 +1879,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="나쁨" xfId="1"/>
+    <cellStyle name="나쁨" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2120,7 +2170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3416,7 +3466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3431,7 +3481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -3707,12 +3757,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3723,11 +3773,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
@@ -3893,18 +3943,18 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6.125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="47" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
@@ -3927,7 +3977,7 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -3941,7 +3991,7 @@
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -3955,7 +4005,7 @@
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -3969,7 +4019,7 @@
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3983,7 +4033,7 @@
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -3994,16 +4044,16 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="23">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="16" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4017,13 +4067,150 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C887ABFD-A4A8-4819-B67A-EAAA273B4DC8}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82760DF8-6DCF-4014-A556-D04E1DF110C2}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4033,66 +4220,66 @@
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.875" customWidth="1"/>
-    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.875" style="47" customWidth="1"/>
+    <col min="12" max="12" width="10.375" style="47" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.75" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.125" customWidth="1"/>
-    <col min="17" max="17" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.375" style="47" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="F3" s="47" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="F3" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="K3" s="47" t="s">
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="K3" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="P3" s="47" t="s">
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="P3" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="7" t="s">
@@ -4257,7 +4444,7 @@
       <c r="D7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="6">
         <v>3</v>
       </c>
       <c r="G7" s="15" t="s">
@@ -4399,17 +4586,17 @@
       <c r="B10" s="18"/>
       <c r="C10" s="14"/>
       <c r="D10" s="19"/>
-      <c r="F10" s="15">
+      <c r="F10" s="6">
         <v>6</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>32</v>
+        <v>229</v>
       </c>
       <c r="K10" s="6">
         <v>6</v>
@@ -4441,17 +4628,17 @@
       <c r="B11" s="18"/>
       <c r="C11" s="14"/>
       <c r="D11" s="19"/>
-      <c r="F11" s="15">
+      <c r="F11" s="6">
         <v>7</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>71</v>
+      <c r="G11" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>79</v>
+        <v>93</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K11" s="6">
         <v>7</v>
@@ -4465,7 +4652,7 @@
       <c r="N11" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="P11" s="15">
+      <c r="P11" s="6">
         <v>7</v>
       </c>
       <c r="Q11" s="15" t="s">
@@ -4483,17 +4670,17 @@
       <c r="B12" s="18"/>
       <c r="C12" s="14"/>
       <c r="D12" s="19"/>
-      <c r="F12" s="15">
+      <c r="F12" s="6">
         <v>8</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>129</v>
+      <c r="H12" s="10" t="s">
+        <v>190</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>82</v>
+        <v>239</v>
       </c>
       <c r="K12" s="6">
         <v>8</v>
@@ -4506,6 +4693,18 @@
       </c>
       <c r="N12" s="1" t="s">
         <v>236</v>
+      </c>
+      <c r="P12" s="15">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="R12" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="S12" s="29" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -4513,17 +4712,17 @@
       <c r="B13" s="18"/>
       <c r="C13" s="14"/>
       <c r="D13" s="19"/>
-      <c r="F13" s="15">
+      <c r="F13" s="6">
         <v>9</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>229</v>
+        <v>355</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>362</v>
       </c>
       <c r="K13" s="6">
         <v>9</v>
@@ -4536,6 +4735,18 @@
       </c>
       <c r="N13" s="1" t="s">
         <v>242</v>
+      </c>
+      <c r="P13" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="R13" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="S13" s="31" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -4546,41 +4757,139 @@
       <c r="F14" s="6">
         <v>10</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>68</v>
+      <c r="G14" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>210</v>
+        <v>70</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="32">
+        <v>10</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="M14" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="N14" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="P14" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="R14" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="S14" s="31" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="F15" s="15">
+      <c r="F15" s="6">
         <v>11</v>
       </c>
       <c r="G15" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" s="9">
+        <v>11</v>
+      </c>
+      <c r="L15" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="N15" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="P15" s="15">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="R15" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="S15" s="37" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="F16" s="6">
+        <v>12</v>
+      </c>
+      <c r="G16" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="F16" s="41">
+      <c r="H16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="6">
         <v>12</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="L16" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="N16" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="P16" s="6">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="H16" s="42" t="s">
+      <c r="R16" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="S16" s="42" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="6:14">
+      <c r="F17" s="6">
+        <v>13</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="K17" s="41">
+        <v>13</v>
+      </c>
+      <c r="L17" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="M17" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="N17" s="42" t="s">
         <v>288</v>
       </c>
     </row>
@@ -4599,11 +4908,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
@@ -5498,7 +5807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5747,7 +6056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5881,11 +6190,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5970,10 +6279,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -6060,12 +6369,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6168,11 +6477,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
